--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/laboral</t>
+          <t>Promedio de horas de sueño/laboral (tasa de respuesta: 98,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,47</t>
+          <t>7,01; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,25</t>
+          <t>6,93; 7,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,3</t>
+          <t>6,92; 7,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,12</t>
+          <t>6,92; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,32</t>
+          <t>7,0; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,12</t>
+          <t>6,96; 7,13</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,2</t>
+          <t>7,03; 7,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,61</t>
+          <t>7,12; 7,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,05</t>
+          <t>6,98; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,06</t>
+          <t>6,45; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,1</t>
+          <t>7,03; 7,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,31</t>
+          <t>6,87; 7,31</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,3</t>
+          <t>7,05; 7,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,07</t>
+          <t>6,87; 7,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>6,99; 7,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,19</t>
+          <t>7,06; 7,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,27 +879,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,21</t>
+          <t>7,08; 7,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,48</t>
+          <t>7,08; 7,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,09</t>
+          <t>7,03; 7,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 7,03</t>
+          <t>6,66; 7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,12</t>
+          <t>7,07; 7,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,21</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,13</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,97; 7,25</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,01; 7,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,93; 7,23</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>6,91; 7,11</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,92; 7,34</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 7,13</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>6,97; 7,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,0; 7,32</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 7,13</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,12</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,07</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,1</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,08; 7,23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,03; 7,2</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 7,6</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>6,99; 7,11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>6,98; 7,15</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 7,05</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,05; 7,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,03; 7,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 7,31</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,17</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,13</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,88; 7,07</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,05; 7,27</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 7,07</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>6,89; 7,08</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>6,99; 7,18</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 7,09</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6,92; 7,05</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 7,05</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,14</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,04; 7,16</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,08; 7,21</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,5</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>6,98; 7,07</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,03; 7,15</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 7,04</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,03; 7,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 7,21</t>
         </is>
       </c>
     </row>
